--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel20/field_16ha_100ha_6%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel20/field_16ha_100ha_6%_6m_0_LM/Planilha_Unificada.xlsx
@@ -2327,28 +2327,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>142.3611001071879</v>
+        <v>183.9337855794901</v>
       </c>
       <c r="AB2" t="n">
-        <v>194.7847376950473</v>
+        <v>251.6663200156644</v>
       </c>
       <c r="AC2" t="n">
-        <v>176.1947557115834</v>
+        <v>227.6476396493411</v>
       </c>
       <c r="AD2" t="n">
-        <v>142361.1001071879</v>
+        <v>183933.7855794901</v>
       </c>
       <c r="AE2" t="n">
-        <v>194784.7376950473</v>
+        <v>251666.3200156644</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.495300614085858e-06</v>
+        <v>4.218429495449173e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.116319444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>176194.7557115834</v>
+        <v>227647.6396493411</v>
       </c>
     </row>
     <row r="3">
@@ -2433,28 +2433,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>108.278423931195</v>
+        <v>149.8510198949461</v>
       </c>
       <c r="AB3" t="n">
-        <v>148.1513165295245</v>
+        <v>205.0327763805932</v>
       </c>
       <c r="AC3" t="n">
-        <v>134.0119628116656</v>
+        <v>185.4647359681968</v>
       </c>
       <c r="AD3" t="n">
-        <v>108278.423931195</v>
+        <v>149851.0198949461</v>
       </c>
       <c r="AE3" t="n">
-        <v>148151.3165295245</v>
+        <v>205032.7763805932</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.001367857724969e-06</v>
+        <v>5.073961279955212e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.753472222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>134011.9628116656</v>
+        <v>185464.7359681968</v>
       </c>
     </row>
     <row r="4">
@@ -2539,28 +2539,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>103.885242392409</v>
+        <v>135.0434436601304</v>
       </c>
       <c r="AB4" t="n">
-        <v>142.1403717346697</v>
+        <v>184.7723973119702</v>
       </c>
       <c r="AC4" t="n">
-        <v>128.5746941516158</v>
+        <v>167.137979042256</v>
       </c>
       <c r="AD4" t="n">
-        <v>103885.242392409</v>
+        <v>135043.4436601304</v>
       </c>
       <c r="AE4" t="n">
-        <v>142140.3717346697</v>
+        <v>184772.3973119702</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.195522524603347e-06</v>
+        <v>5.402189377530103e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.336805555555555</v>
       </c>
       <c r="AH4" t="n">
-        <v>128574.6941516158</v>
+        <v>167137.979042256</v>
       </c>
     </row>
     <row r="5">
@@ -2645,28 +2645,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>101.1135883149588</v>
+        <v>132.2717895826803</v>
       </c>
       <c r="AB5" t="n">
-        <v>138.3480723491562</v>
+        <v>180.9800979264567</v>
       </c>
       <c r="AC5" t="n">
-        <v>125.144326496929</v>
+        <v>163.7076113875692</v>
       </c>
       <c r="AD5" t="n">
-        <v>101113.5883149588</v>
+        <v>132271.7895826803</v>
       </c>
       <c r="AE5" t="n">
-        <v>138348.0723491563</v>
+        <v>180980.0979264567</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.302519999112903e-06</v>
+        <v>5.583073916996719e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.137152777777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>125144.326496929</v>
+        <v>163707.6113875692</v>
       </c>
     </row>
     <row r="6">
@@ -2751,28 +2751,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>99.36809726708037</v>
+        <v>130.5262985348019</v>
       </c>
       <c r="AB6" t="n">
-        <v>135.9598144918199</v>
+        <v>178.5918400691204</v>
       </c>
       <c r="AC6" t="n">
-        <v>122.9840006175551</v>
+        <v>161.5472855081954</v>
       </c>
       <c r="AD6" t="n">
-        <v>99368.09726708037</v>
+        <v>130526.2985348019</v>
       </c>
       <c r="AE6" t="n">
-        <v>135959.8144918199</v>
+        <v>178591.8400691204</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.349786553624651e-06</v>
+        <v>5.662980372585701e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.050347222222222</v>
       </c>
       <c r="AH6" t="n">
-        <v>122984.0006175551</v>
+        <v>161547.2855081953</v>
       </c>
     </row>
     <row r="7">
@@ -2857,28 +2857,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>88.15165895090203</v>
+        <v>129.6389140600815</v>
       </c>
       <c r="AB7" t="n">
-        <v>120.6129887532976</v>
+        <v>177.3776814821686</v>
       </c>
       <c r="AC7" t="n">
-        <v>109.1018543881073</v>
+        <v>160.4490045126996</v>
       </c>
       <c r="AD7" t="n">
-        <v>88151.65895090203</v>
+        <v>129638.9140600815</v>
       </c>
       <c r="AE7" t="n">
-        <v>120612.9887532976</v>
+        <v>177377.6814821686</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.387879895334859e-06</v>
+        <v>5.72737905679371e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.980902777777778</v>
       </c>
       <c r="AH7" t="n">
-        <v>109101.8543881073</v>
+        <v>160449.0045126996</v>
       </c>
     </row>
   </sheetData>
@@ -3154,28 +3154,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>117.1671569912057</v>
+        <v>147.4389500313368</v>
       </c>
       <c r="AB2" t="n">
-        <v>160.3132732454516</v>
+        <v>201.7324759801924</v>
       </c>
       <c r="AC2" t="n">
-        <v>145.013199448042</v>
+        <v>182.4794116060084</v>
       </c>
       <c r="AD2" t="n">
-        <v>117167.1569912057</v>
+        <v>147438.9500313367</v>
       </c>
       <c r="AE2" t="n">
-        <v>160313.2732454516</v>
+        <v>201732.4759801924</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.909697189711722e-06</v>
+        <v>5.038987427641592e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.204861111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>145013.199448042</v>
+        <v>182479.4116060084</v>
       </c>
     </row>
     <row r="3">
@@ -3260,28 +3260,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>98.91747674983974</v>
+        <v>129.1039289353992</v>
       </c>
       <c r="AB3" t="n">
-        <v>135.3432556201575</v>
+        <v>176.6456912327006</v>
       </c>
       <c r="AC3" t="n">
-        <v>122.4262852592581</v>
+        <v>159.7868743852858</v>
       </c>
       <c r="AD3" t="n">
-        <v>98917.47674983974</v>
+        <v>129103.9289353992</v>
       </c>
       <c r="AE3" t="n">
-        <v>135343.2556201575</v>
+        <v>176645.6912327006</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.338852292139453e-06</v>
+        <v>5.782194374841422e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.276041666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>122426.2852592581</v>
+        <v>159786.8743852857</v>
       </c>
     </row>
     <row r="4">
@@ -3366,28 +3366,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>85.12657516770054</v>
+        <v>125.3181648339973</v>
       </c>
       <c r="AB4" t="n">
-        <v>116.4739356638458</v>
+        <v>171.4658417730404</v>
       </c>
       <c r="AC4" t="n">
-        <v>105.3578267163139</v>
+        <v>155.1013824880895</v>
       </c>
       <c r="AD4" t="n">
-        <v>85126.57516770053</v>
+        <v>125318.1648339973</v>
       </c>
       <c r="AE4" t="n">
-        <v>116473.9356638458</v>
+        <v>171465.8417730404</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.514759281459546e-06</v>
+        <v>6.086828517099383e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.963541666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>105357.8267163139</v>
+        <v>155101.3824880895</v>
       </c>
     </row>
     <row r="5">
@@ -3472,28 +3472,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>83.70590633126886</v>
+        <v>113.9776098628489</v>
       </c>
       <c r="AB5" t="n">
-        <v>114.5301138863553</v>
+        <v>155.9491941515477</v>
       </c>
       <c r="AC5" t="n">
-        <v>103.5995205610955</v>
+        <v>141.0656219378354</v>
       </c>
       <c r="AD5" t="n">
-        <v>83705.90633126887</v>
+        <v>113977.6098628489</v>
       </c>
       <c r="AE5" t="n">
-        <v>114530.1138863553</v>
+        <v>155949.1941515477</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.563317820309609e-06</v>
+        <v>6.170921758016442e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.885416666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>103599.5205610955</v>
+        <v>141065.6219378354</v>
       </c>
     </row>
   </sheetData>
@@ -3769,28 +3769,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>71.87312389959014</v>
+        <v>99.21922073773585</v>
       </c>
       <c r="AB2" t="n">
-        <v>98.33997893782239</v>
+        <v>135.7561150564019</v>
       </c>
       <c r="AC2" t="n">
-        <v>88.95454936904835</v>
+        <v>122.7997419703594</v>
       </c>
       <c r="AD2" t="n">
-        <v>71873.12389959014</v>
+        <v>99219.22073773586</v>
       </c>
       <c r="AE2" t="n">
-        <v>98339.97893782239</v>
+        <v>135756.1150564019</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.060531999496122e-06</v>
+        <v>7.68340032778884e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.763888888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>88954.54936904836</v>
+        <v>122799.7419703594</v>
       </c>
     </row>
     <row r="3">
@@ -3875,28 +3875,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>71.32654438800226</v>
+        <v>98.67264122614799</v>
       </c>
       <c r="AB3" t="n">
-        <v>97.59212473668204</v>
+        <v>135.0082608552616</v>
       </c>
       <c r="AC3" t="n">
-        <v>88.27806932324464</v>
+        <v>122.1232619245557</v>
       </c>
       <c r="AD3" t="n">
-        <v>71326.54438800226</v>
+        <v>98672.64122614799</v>
       </c>
       <c r="AE3" t="n">
-        <v>97592.12473668203</v>
+        <v>135008.2608552616</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.107818607321551e-06</v>
+        <v>7.772876765386427e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.694444444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>88278.06932324464</v>
+        <v>122123.2619245557</v>
       </c>
     </row>
   </sheetData>
@@ -4172,28 +4172,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>90.78368690941429</v>
+        <v>119.1883279003107</v>
       </c>
       <c r="AB2" t="n">
-        <v>124.2142455230106</v>
+        <v>163.0787284510551</v>
       </c>
       <c r="AC2" t="n">
-        <v>112.3594122661157</v>
+        <v>147.5147234901643</v>
       </c>
       <c r="AD2" t="n">
-        <v>90783.68690941429</v>
+        <v>119188.3279003107</v>
       </c>
       <c r="AE2" t="n">
-        <v>124214.2455230106</v>
+        <v>163078.7284510551</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.548715508795071e-06</v>
+        <v>6.464988965514452e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.302083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>112359.4122661157</v>
+        <v>147514.7234901643</v>
       </c>
     </row>
     <row r="3">
@@ -4278,28 +4278,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>75.51937247947517</v>
+        <v>104.0092648163921</v>
       </c>
       <c r="AB3" t="n">
-        <v>103.3289371059529</v>
+        <v>142.3100646866466</v>
       </c>
       <c r="AC3" t="n">
-        <v>93.46736837166087</v>
+        <v>128.7281918464217</v>
       </c>
       <c r="AD3" t="n">
-        <v>75519.37247947516</v>
+        <v>104009.2648163921</v>
       </c>
       <c r="AE3" t="n">
-        <v>103328.9371059529</v>
+        <v>142310.0646866466</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.934330582277701e-06</v>
+        <v>7.167495883531028e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.685763888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>93467.36837166086</v>
+        <v>128728.1918464217</v>
       </c>
     </row>
   </sheetData>
@@ -4575,28 +4575,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>67.82792670357766</v>
+        <v>94.23587660477926</v>
       </c>
       <c r="AB2" t="n">
-        <v>92.80516167273582</v>
+        <v>128.9376837640672</v>
       </c>
       <c r="AC2" t="n">
-        <v>83.94796729557504</v>
+        <v>116.6320521908345</v>
       </c>
       <c r="AD2" t="n">
-        <v>67827.92670357766</v>
+        <v>94235.87660477926</v>
       </c>
       <c r="AE2" t="n">
-        <v>92805.16167273582</v>
+        <v>128937.6837640672</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.222325133383564e-06</v>
+        <v>8.274396826299159e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.755208333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>83947.96729557504</v>
+        <v>116632.0521908345</v>
       </c>
     </row>
   </sheetData>
@@ -4872,28 +4872,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>121.4022351795041</v>
+        <v>161.9344689389757</v>
       </c>
       <c r="AB2" t="n">
-        <v>166.1078940611419</v>
+        <v>221.5658844467749</v>
       </c>
       <c r="AC2" t="n">
-        <v>150.254789785886</v>
+        <v>200.4199474049102</v>
       </c>
       <c r="AD2" t="n">
-        <v>121402.2351795041</v>
+        <v>161934.4689389757</v>
       </c>
       <c r="AE2" t="n">
-        <v>166107.8940611419</v>
+        <v>221565.8844467749</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.773986142904702e-06</v>
+        <v>4.7725910281485e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.491319444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>150254.789785886</v>
+        <v>200419.9474049102</v>
       </c>
     </row>
     <row r="3">
@@ -4978,28 +4978,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>100.5612205380692</v>
+        <v>131.0030886620965</v>
       </c>
       <c r="AB3" t="n">
-        <v>137.5922983880699</v>
+        <v>179.2442053557805</v>
       </c>
       <c r="AC3" t="n">
-        <v>124.460682541953</v>
+        <v>162.1373899674972</v>
       </c>
       <c r="AD3" t="n">
-        <v>100561.2205380692</v>
+        <v>131003.0886620965</v>
       </c>
       <c r="AE3" t="n">
-        <v>137592.2983880699</v>
+        <v>179244.2053557805</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.275908620302855e-06</v>
+        <v>5.636139218028117e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.336805555555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>124460.6825419531</v>
+        <v>162137.3899674972</v>
       </c>
     </row>
     <row r="4">
@@ -5084,28 +5084,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>97.55082135930515</v>
+        <v>127.9926894833324</v>
       </c>
       <c r="AB4" t="n">
-        <v>133.4733374222484</v>
+        <v>175.125244389959</v>
       </c>
       <c r="AC4" t="n">
-        <v>120.7348294297102</v>
+        <v>158.4115368552544</v>
       </c>
       <c r="AD4" t="n">
-        <v>97550.82135930515</v>
+        <v>127992.6894833324</v>
       </c>
       <c r="AE4" t="n">
-        <v>133473.3374222484</v>
+        <v>175125.244389959</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.425588005100255e-06</v>
+        <v>5.893659786690668e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.067708333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>120734.8294297102</v>
+        <v>158411.5368552544</v>
       </c>
     </row>
     <row r="5">
@@ -5190,28 +5190,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>84.93834900603237</v>
+        <v>115.4654684760802</v>
       </c>
       <c r="AB5" t="n">
-        <v>116.2163963254993</v>
+        <v>157.9849479458592</v>
       </c>
       <c r="AC5" t="n">
-        <v>105.1248665709605</v>
+        <v>142.9070862472169</v>
       </c>
       <c r="AD5" t="n">
-        <v>84938.34900603237</v>
+        <v>115465.4684760802</v>
       </c>
       <c r="AE5" t="n">
-        <v>116216.3963254993</v>
+        <v>157984.9479458592</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.503167631880937e-06</v>
+        <v>6.02713407663535e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.928819444444445</v>
       </c>
       <c r="AH5" t="n">
-        <v>105124.8665709605</v>
+        <v>142907.0862472169</v>
       </c>
     </row>
     <row r="6">
@@ -5296,28 +5296,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>85.1240647908328</v>
+        <v>125.6562090417534</v>
       </c>
       <c r="AB6" t="n">
-        <v>116.4705008554654</v>
+        <v>171.92836877155</v>
       </c>
       <c r="AC6" t="n">
-        <v>105.3547197212246</v>
+        <v>155.5197665590222</v>
       </c>
       <c r="AD6" t="n">
-        <v>85124.06479083281</v>
+        <v>125656.2090417534</v>
       </c>
       <c r="AE6" t="n">
-        <v>116470.5008554654</v>
+        <v>171928.36877155</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.490245670603464e-06</v>
+        <v>6.004902085096138e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.954861111111111</v>
       </c>
       <c r="AH6" t="n">
-        <v>105354.7197212246</v>
+        <v>155519.7665590222</v>
       </c>
     </row>
   </sheetData>
@@ -5593,28 +5593,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>65.91936884252895</v>
+        <v>91.77179529129243</v>
       </c>
       <c r="AB2" t="n">
-        <v>90.19378860761998</v>
+        <v>125.5662190033609</v>
       </c>
       <c r="AC2" t="n">
-        <v>81.58582001070791</v>
+        <v>113.5823552950084</v>
       </c>
       <c r="AD2" t="n">
-        <v>65919.36884252896</v>
+        <v>91771.79529129244</v>
       </c>
       <c r="AE2" t="n">
-        <v>90193.78860761998</v>
+        <v>125566.2190033609</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.253494036696498e-06</v>
+        <v>8.526810957495934e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.842013888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>81585.8200107079</v>
+        <v>113582.3552950084</v>
       </c>
     </row>
   </sheetData>
@@ -5890,28 +5890,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>98.96590610849829</v>
+        <v>138.137572231186</v>
       </c>
       <c r="AB2" t="n">
-        <v>135.4095188052266</v>
+        <v>189.0059205262048</v>
       </c>
       <c r="AC2" t="n">
-        <v>122.4862243789452</v>
+        <v>170.9674607427126</v>
       </c>
       <c r="AD2" t="n">
-        <v>98965.90610849828</v>
+        <v>138137.572231186</v>
       </c>
       <c r="AE2" t="n">
-        <v>135409.5188052266</v>
+        <v>189005.9205262048</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.200822360108566e-06</v>
+        <v>5.66889424293889e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.744791666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>122486.2243789452</v>
+        <v>170967.4607427126</v>
       </c>
     </row>
     <row r="3">
@@ -5996,28 +5996,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>82.08852254843822</v>
+        <v>121.1748478165542</v>
       </c>
       <c r="AB3" t="n">
-        <v>112.3171380407509</v>
+        <v>165.7967726395316</v>
       </c>
       <c r="AC3" t="n">
-        <v>101.5977480242639</v>
+        <v>149.9733613560925</v>
       </c>
       <c r="AD3" t="n">
-        <v>82088.52254843822</v>
+        <v>121174.8478165542</v>
       </c>
       <c r="AE3" t="n">
-        <v>112317.1380407509</v>
+        <v>165796.7726395316</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.626441002696627e-06</v>
+        <v>6.422696485364204e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.954861111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>101597.7480242639</v>
+        <v>149973.3613560924</v>
       </c>
     </row>
     <row r="4">
@@ -6102,28 +6102,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>79.91243709334677</v>
+        <v>109.3551923262912</v>
       </c>
       <c r="AB4" t="n">
-        <v>109.3397219189815</v>
+        <v>149.6245985513634</v>
       </c>
       <c r="AC4" t="n">
-        <v>98.90449231832538</v>
+        <v>135.344636865105</v>
       </c>
       <c r="AD4" t="n">
-        <v>79912.43709334677</v>
+        <v>109355.1923262912</v>
       </c>
       <c r="AE4" t="n">
-        <v>109339.7219189815</v>
+        <v>149624.5985513634</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.724138244305424e-06</v>
+        <v>6.595725559832535e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.798611111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>98904.49231832538</v>
+        <v>135344.636865105</v>
       </c>
     </row>
   </sheetData>
@@ -6399,28 +6399,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>103.702752087469</v>
+        <v>143.6261780081994</v>
       </c>
       <c r="AB2" t="n">
-        <v>141.890680448547</v>
+        <v>196.5156730905084</v>
       </c>
       <c r="AC2" t="n">
-        <v>128.3488330513966</v>
+        <v>177.7604930622853</v>
       </c>
       <c r="AD2" t="n">
-        <v>103702.752087469</v>
+        <v>143626.1780081994</v>
       </c>
       <c r="AE2" t="n">
-        <v>141890.6804485469</v>
+        <v>196515.6730905084</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.024185712942049e-06</v>
+        <v>5.273915813880648e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.996527777777779</v>
       </c>
       <c r="AH2" t="n">
-        <v>128348.8330513967</v>
+        <v>177760.4930622854</v>
       </c>
     </row>
     <row r="3">
@@ -6505,28 +6505,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>97.40885805773777</v>
+        <v>127.3301817931937</v>
       </c>
       <c r="AB3" t="n">
-        <v>133.2790969700652</v>
+        <v>174.2187721405352</v>
       </c>
       <c r="AC3" t="n">
-        <v>120.5591270136651</v>
+        <v>157.5915770450735</v>
       </c>
       <c r="AD3" t="n">
-        <v>97408.85805773777</v>
+        <v>127330.1817931937</v>
       </c>
       <c r="AE3" t="n">
-        <v>133279.0969700651</v>
+        <v>174218.7721405352</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.384484661259434e-06</v>
+        <v>5.902245718728669e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.25</v>
       </c>
       <c r="AH3" t="n">
-        <v>120559.1270136651</v>
+        <v>157591.5770450735</v>
       </c>
     </row>
     <row r="4">
@@ -6611,28 +6611,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>83.00207399948535</v>
+        <v>113.0086490809619</v>
       </c>
       <c r="AB4" t="n">
-        <v>113.5670994391186</v>
+        <v>154.6234192622379</v>
       </c>
       <c r="AC4" t="n">
-        <v>102.7284148611035</v>
+        <v>139.8663771432241</v>
       </c>
       <c r="AD4" t="n">
-        <v>83002.07399948535</v>
+        <v>113008.6490809619</v>
       </c>
       <c r="AE4" t="n">
-        <v>113567.0994391186</v>
+        <v>154623.4192622378</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.587169578062023e-06</v>
+        <v>6.255710515346715e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.902777777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>102728.4148611035</v>
+        <v>139866.3771432241</v>
       </c>
     </row>
     <row r="5">
@@ -6717,28 +6717,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>82.07756237057049</v>
+        <v>112.084137452047</v>
       </c>
       <c r="AB5" t="n">
-        <v>112.3021418418634</v>
+        <v>153.3584616649827</v>
       </c>
       <c r="AC5" t="n">
-        <v>101.5841830415508</v>
+        <v>138.7221453236715</v>
       </c>
       <c r="AD5" t="n">
-        <v>82077.56237057049</v>
+        <v>112084.137452047</v>
       </c>
       <c r="AE5" t="n">
-        <v>112302.1418418634</v>
+        <v>153358.4616649827</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.642112669159201e-06</v>
+        <v>6.351526468633193e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.807291666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>101584.1830415508</v>
+        <v>138722.1453236715</v>
       </c>
     </row>
   </sheetData>
@@ -7014,28 +7014,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>128.3572297442565</v>
+        <v>169.7069310396533</v>
       </c>
       <c r="AB2" t="n">
-        <v>175.6240244573363</v>
+        <v>232.2005099897441</v>
       </c>
       <c r="AC2" t="n">
-        <v>158.8627140530436</v>
+        <v>210.0396192118525</v>
       </c>
       <c r="AD2" t="n">
-        <v>128357.2297442565</v>
+        <v>169706.9310396533</v>
       </c>
       <c r="AE2" t="n">
-        <v>175624.0244573363</v>
+        <v>232200.5099897441</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.582420865790025e-06</v>
+        <v>4.389944318339614e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.907986111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>158862.7140530436</v>
+        <v>210039.6192118526</v>
       </c>
     </row>
     <row r="3">
@@ -7120,28 +7120,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>105.7992951487477</v>
+        <v>147.063655589573</v>
       </c>
       <c r="AB3" t="n">
-        <v>144.7592631579391</v>
+        <v>201.2189815681493</v>
       </c>
       <c r="AC3" t="n">
-        <v>130.9436422530865</v>
+        <v>182.0149243799566</v>
       </c>
       <c r="AD3" t="n">
-        <v>105799.2951487477</v>
+        <v>147063.655589573</v>
       </c>
       <c r="AE3" t="n">
-        <v>144759.2631579391</v>
+        <v>201218.9815681493</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.08474582761199e-06</v>
+        <v>5.243863461157521e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.623263888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>130943.6422530865</v>
+        <v>182014.9243799566</v>
       </c>
     </row>
     <row r="4">
@@ -7226,28 +7226,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>101.3607953714784</v>
+        <v>132.2878199970054</v>
       </c>
       <c r="AB4" t="n">
-        <v>138.6863119498918</v>
+        <v>181.0020314465484</v>
       </c>
       <c r="AC4" t="n">
-        <v>125.4502849848927</v>
+        <v>163.7274516032872</v>
       </c>
       <c r="AD4" t="n">
-        <v>101360.7953714784</v>
+        <v>132287.8199970055</v>
       </c>
       <c r="AE4" t="n">
-        <v>138686.3119498918</v>
+        <v>181002.0314465484</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.294992940438271e-06</v>
+        <v>5.601269618544915e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.197916666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>125450.2849848927</v>
+        <v>163727.4516032872</v>
       </c>
     </row>
     <row r="5">
@@ -7332,28 +7332,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>98.96967348512229</v>
+        <v>129.8966981106494</v>
       </c>
       <c r="AB5" t="n">
-        <v>135.4146734961285</v>
+        <v>177.7303929927851</v>
       </c>
       <c r="AC5" t="n">
-        <v>122.4908871133821</v>
+        <v>160.7680537317766</v>
       </c>
       <c r="AD5" t="n">
-        <v>98969.67348512229</v>
+        <v>129896.6981106494</v>
       </c>
       <c r="AE5" t="n">
-        <v>135414.6734961285</v>
+        <v>177730.3929927851</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.382493949010443e-06</v>
+        <v>5.750015533867621e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.041666666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>122490.8871133821</v>
+        <v>160768.0537317766</v>
       </c>
     </row>
     <row r="6">
@@ -7438,28 +7438,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>87.44925924794467</v>
+        <v>128.6282788341983</v>
       </c>
       <c r="AB6" t="n">
-        <v>119.6519344920239</v>
+        <v>175.9948857800364</v>
       </c>
       <c r="AC6" t="n">
-        <v>108.2325217966811</v>
+        <v>159.1981808916125</v>
       </c>
       <c r="AD6" t="n">
-        <v>87449.25924794466</v>
+        <v>128628.2788341983</v>
       </c>
       <c r="AE6" t="n">
-        <v>119651.9344920239</v>
+        <v>175994.8857800364</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.406586724696892e-06</v>
+        <v>5.790971655752658e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.998263888888889</v>
       </c>
       <c r="AH6" t="n">
-        <v>108232.5217966811</v>
+        <v>159198.1808916125</v>
       </c>
     </row>
     <row r="7">
@@ -7544,28 +7544,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>87.61395563910291</v>
+        <v>128.7929752253565</v>
       </c>
       <c r="AB7" t="n">
-        <v>119.8772793602985</v>
+        <v>176.2202306483111</v>
       </c>
       <c r="AC7" t="n">
-        <v>108.4363600670012</v>
+        <v>159.4020191619325</v>
       </c>
       <c r="AD7" t="n">
-        <v>87613.95563910292</v>
+        <v>128792.9752253566</v>
       </c>
       <c r="AE7" t="n">
-        <v>119877.2793602985</v>
+        <v>176220.2306483111</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.404516251786339e-06</v>
+        <v>5.787451989028163e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.998263888888889</v>
       </c>
       <c r="AH7" t="n">
-        <v>108436.3600670012</v>
+        <v>159402.0191619325</v>
       </c>
     </row>
   </sheetData>
@@ -7841,28 +7841,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>94.09702171282899</v>
+        <v>123.0068016508622</v>
       </c>
       <c r="AB2" t="n">
-        <v>128.7476963750555</v>
+        <v>168.3033326957297</v>
       </c>
       <c r="AC2" t="n">
-        <v>116.460196931581</v>
+        <v>152.2406988385069</v>
       </c>
       <c r="AD2" t="n">
-        <v>94097.021712829</v>
+        <v>123006.8016508622</v>
       </c>
       <c r="AE2" t="n">
-        <v>128747.6963750555</v>
+        <v>168303.3326957297</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.391083375494014e-06</v>
+        <v>6.114925791790586e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.519097222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>116460.196931581</v>
+        <v>152240.6988385069</v>
       </c>
     </row>
     <row r="3">
@@ -7947,28 +7947,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>77.18582166236453</v>
+        <v>106.0102607458261</v>
       </c>
       <c r="AB3" t="n">
-        <v>105.6090463965303</v>
+        <v>145.0479155950068</v>
       </c>
       <c r="AC3" t="n">
-        <v>95.52986723169973</v>
+        <v>131.2047461066868</v>
       </c>
       <c r="AD3" t="n">
-        <v>77185.82166236453</v>
+        <v>106010.2607458261</v>
       </c>
       <c r="AE3" t="n">
-        <v>105609.0463965303</v>
+        <v>145047.9155950068</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.863149671473837e-06</v>
+        <v>6.966173033183328e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.720486111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>95529.86723169973</v>
+        <v>131204.7461066868</v>
       </c>
     </row>
     <row r="4">
@@ -8053,28 +8053,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>77.09607577071077</v>
+        <v>105.9205148541724</v>
       </c>
       <c r="AB4" t="n">
-        <v>105.4862521082604</v>
+        <v>144.9251213067369</v>
       </c>
       <c r="AC4" t="n">
-        <v>95.41879225795937</v>
+        <v>131.0936711329465</v>
       </c>
       <c r="AD4" t="n">
-        <v>77096.07577071077</v>
+        <v>105920.5148541723</v>
       </c>
       <c r="AE4" t="n">
-        <v>105486.2521082604</v>
+        <v>144925.1213067369</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.863786016637188e-06</v>
+        <v>6.967320514097532e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.720486111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>95418.79225795937</v>
+        <v>131093.6711329465</v>
       </c>
     </row>
   </sheetData>
@@ -8350,28 +8350,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>75.02395263286542</v>
+        <v>102.7791141312938</v>
       </c>
       <c r="AB2" t="n">
-        <v>102.6510818154407</v>
+        <v>140.6269182488778</v>
       </c>
       <c r="AC2" t="n">
-        <v>92.85420663869905</v>
+        <v>127.2056825423622</v>
       </c>
       <c r="AD2" t="n">
-        <v>75023.95263286542</v>
+        <v>102779.1141312938</v>
       </c>
       <c r="AE2" t="n">
-        <v>102651.0818154407</v>
+        <v>140626.9182488778</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.876064802219399e-06</v>
+        <v>7.231497964975778e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.9375</v>
       </c>
       <c r="AH2" t="n">
-        <v>92854.20663869905</v>
+        <v>127205.6825423622</v>
       </c>
     </row>
     <row r="3">
@@ -8456,28 +8456,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>72.79099104647472</v>
+        <v>100.5461525449031</v>
       </c>
       <c r="AB3" t="n">
-        <v>99.59584526162993</v>
+        <v>137.571681695067</v>
       </c>
       <c r="AC3" t="n">
-        <v>90.09055757353154</v>
+        <v>124.4420334771947</v>
       </c>
       <c r="AD3" t="n">
-        <v>72790.99104647472</v>
+        <v>100546.1525449031</v>
       </c>
       <c r="AE3" t="n">
-        <v>99595.84526162993</v>
+        <v>137571.681695067</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.053340273141155e-06</v>
+        <v>7.562237328898889e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.677083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>90090.55757353154</v>
+        <v>124442.0334771947</v>
       </c>
     </row>
   </sheetData>
@@ -14550,28 +14550,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>69.64726282152179</v>
+        <v>96.54773076099953</v>
       </c>
       <c r="AB2" t="n">
-        <v>95.29445761275058</v>
+        <v>132.1008646124134</v>
       </c>
       <c r="AC2" t="n">
-        <v>86.19968832482436</v>
+        <v>119.4933434985677</v>
       </c>
       <c r="AD2" t="n">
-        <v>69647.2628215218</v>
+        <v>96547.73076099953</v>
       </c>
       <c r="AE2" t="n">
-        <v>95294.45761275057</v>
+        <v>132100.8646124134</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.168391016604035e-06</v>
+        <v>8.015970503906994e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.711805555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>86199.68832482437</v>
+        <v>119493.3434985677</v>
       </c>
     </row>
   </sheetData>
@@ -14847,28 +14847,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>72.40263195234004</v>
+        <v>97.52358085662704</v>
       </c>
       <c r="AB2" t="n">
-        <v>99.0644752158411</v>
+        <v>133.436065764718</v>
       </c>
       <c r="AC2" t="n">
-        <v>89.60990073913007</v>
+        <v>120.7011149268635</v>
       </c>
       <c r="AD2" t="n">
-        <v>72402.63195234005</v>
+        <v>97523.58085662703</v>
       </c>
       <c r="AE2" t="n">
-        <v>99064.4752158411</v>
+        <v>133436.065764718</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.211009885875128e-06</v>
+        <v>8.685626132857836e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.067708333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>89609.90073913007</v>
+        <v>120701.1149268635</v>
       </c>
     </row>
   </sheetData>
@@ -15144,28 +15144,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>101.3075082165856</v>
+        <v>140.863071242763</v>
       </c>
       <c r="AB2" t="n">
-        <v>138.6134021137042</v>
+        <v>192.7350685143729</v>
       </c>
       <c r="AC2" t="n">
-        <v>125.3843335611412</v>
+        <v>174.3407040807832</v>
       </c>
       <c r="AD2" t="n">
-        <v>101307.5082165856</v>
+        <v>140863.071242763</v>
       </c>
       <c r="AE2" t="n">
-        <v>138613.4021137042</v>
+        <v>192735.0685143729</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.108144025423528e-06</v>
+        <v>5.460886443300695e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.875</v>
       </c>
       <c r="AH2" t="n">
-        <v>125384.3335611412</v>
+        <v>174340.7040807832</v>
       </c>
     </row>
     <row r="3">
@@ -15250,28 +15250,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>94.42153715061964</v>
+        <v>124.0669637151609</v>
       </c>
       <c r="AB3" t="n">
-        <v>129.1917127136511</v>
+        <v>169.7538932031516</v>
       </c>
       <c r="AC3" t="n">
-        <v>116.8618369740021</v>
+        <v>153.5528198869754</v>
       </c>
       <c r="AD3" t="n">
-        <v>94421.53715061964</v>
+        <v>124066.9637151608</v>
       </c>
       <c r="AE3" t="n">
-        <v>129191.7127136511</v>
+        <v>169753.8932031516</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.521918206884714e-06</v>
+        <v>6.187871357656887e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.067708333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>116861.8369740021</v>
+        <v>153552.8198869755</v>
       </c>
     </row>
     <row r="4">
@@ -15356,28 +15356,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>80.9656203199626</v>
+        <v>110.6962982305243</v>
       </c>
       <c r="AB4" t="n">
-        <v>110.7807336728013</v>
+        <v>151.4595588149511</v>
       </c>
       <c r="AC4" t="n">
-        <v>100.2079759328338</v>
+        <v>137.0044710965194</v>
       </c>
       <c r="AD4" t="n">
-        <v>80965.6203199626</v>
+        <v>110696.2982305243</v>
       </c>
       <c r="AE4" t="n">
-        <v>110780.7336728013</v>
+        <v>151459.5588149511</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.685955653845853e-06</v>
+        <v>6.47607868105519e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.798611111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>100207.9759328338</v>
+        <v>137004.4710965194</v>
       </c>
     </row>
     <row r="5">
@@ -15462,28 +15462,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>80.96131828939947</v>
+        <v>110.6919961999612</v>
       </c>
       <c r="AB5" t="n">
-        <v>110.7748474447927</v>
+        <v>151.4536725869424</v>
       </c>
       <c r="AC5" t="n">
-        <v>100.2026514781649</v>
+        <v>136.9991466418505</v>
       </c>
       <c r="AD5" t="n">
-        <v>80961.31828939947</v>
+        <v>110691.9961999612</v>
       </c>
       <c r="AE5" t="n">
-        <v>110774.8474447927</v>
+        <v>151453.6725869424</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.691347249356058e-06</v>
+        <v>6.485551501680169e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.789930555555555</v>
       </c>
       <c r="AH5" t="n">
-        <v>100202.6514781649</v>
+        <v>136999.1466418505</v>
       </c>
     </row>
   </sheetData>
@@ -15759,28 +15759,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>124.7814777650231</v>
+        <v>165.8131048546848</v>
       </c>
       <c r="AB2" t="n">
-        <v>170.7315228483079</v>
+        <v>226.8728052199854</v>
       </c>
       <c r="AC2" t="n">
-        <v>154.4371459309101</v>
+        <v>205.2203831078373</v>
       </c>
       <c r="AD2" t="n">
-        <v>124781.4777650231</v>
+        <v>165813.1048546848</v>
       </c>
       <c r="AE2" t="n">
-        <v>170731.5228483079</v>
+        <v>226872.8052199854</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.676875386863817e-06</v>
+        <v>4.577158594131502e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.690972222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>154437.1459309101</v>
+        <v>205220.3831078373</v>
       </c>
     </row>
     <row r="3">
@@ -15865,28 +15865,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>103.2732371904362</v>
+        <v>133.9617061616619</v>
       </c>
       <c r="AB3" t="n">
-        <v>141.302999217567</v>
+        <v>183.2923163436759</v>
       </c>
       <c r="AC3" t="n">
-        <v>127.8172392922855</v>
+        <v>165.7991549242686</v>
       </c>
       <c r="AD3" t="n">
-        <v>103273.2371904362</v>
+        <v>133961.7061616619</v>
       </c>
       <c r="AE3" t="n">
-        <v>141302.999217567</v>
+        <v>183292.3163436759</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.17410258793865e-06</v>
+        <v>5.42736169577906e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.484375</v>
       </c>
       <c r="AH3" t="n">
-        <v>127817.2392922855</v>
+        <v>165799.1549242686</v>
       </c>
     </row>
     <row r="4">
@@ -15971,28 +15971,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>99.9096241703986</v>
+        <v>130.5980931416243</v>
       </c>
       <c r="AB4" t="n">
-        <v>136.7007554914205</v>
+        <v>178.6900726175294</v>
       </c>
       <c r="AC4" t="n">
-        <v>123.6542272480713</v>
+        <v>161.6361428800544</v>
       </c>
       <c r="AD4" t="n">
-        <v>99909.6241703986</v>
+        <v>130598.0931416243</v>
       </c>
       <c r="AE4" t="n">
-        <v>136700.7554914205</v>
+        <v>178690.0726175294</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.332767386869347e-06</v>
+        <v>5.698660819965274e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.180555555555555</v>
       </c>
       <c r="AH4" t="n">
-        <v>123654.2272480713</v>
+        <v>161636.1428800544</v>
       </c>
     </row>
     <row r="5">
@@ -16077,28 +16077,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>86.68625293305216</v>
+        <v>127.5471983135706</v>
       </c>
       <c r="AB5" t="n">
-        <v>118.6079555905256</v>
+        <v>174.5157037178079</v>
       </c>
       <c r="AC5" t="n">
-        <v>107.2881787763079</v>
+        <v>157.8601698893575</v>
       </c>
       <c r="AD5" t="n">
-        <v>86686.25293305216</v>
+        <v>127547.1983135706</v>
       </c>
       <c r="AE5" t="n">
-        <v>118607.9555905256</v>
+        <v>174515.7037178079</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.446831434904454e-06</v>
+        <v>5.89369763053455e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.972222222222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>107288.1787763079</v>
+        <v>157860.1698893575</v>
       </c>
     </row>
     <row r="6">
@@ -16183,28 +16183,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>85.90332378434589</v>
+        <v>116.6770441015922</v>
       </c>
       <c r="AB6" t="n">
-        <v>117.5367173888699</v>
+        <v>159.642679167628</v>
       </c>
       <c r="AC6" t="n">
-        <v>106.3191780451256</v>
+        <v>144.406605927821</v>
       </c>
       <c r="AD6" t="n">
-        <v>85903.32378434589</v>
+        <v>116677.0441015922</v>
       </c>
       <c r="AE6" t="n">
-        <v>117536.7173888699</v>
+        <v>159642.679167628</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.481824045314558e-06</v>
+        <v>5.953531094675499e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.911458333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>106319.1780451256</v>
+        <v>144406.605927821</v>
       </c>
     </row>
   </sheetData>
@@ -16480,28 +16480,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>69.64011783384251</v>
+        <v>94.13924408865557</v>
       </c>
       <c r="AB2" t="n">
-        <v>95.28468152539317</v>
+        <v>128.8054668923811</v>
       </c>
       <c r="AC2" t="n">
-        <v>86.19084525352352</v>
+        <v>116.5124539118145</v>
       </c>
       <c r="AD2" t="n">
-        <v>69640.11783384251</v>
+        <v>94139.24408865557</v>
       </c>
       <c r="AE2" t="n">
-        <v>95284.68152539317</v>
+        <v>128805.4668923811</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.01878783319507e-06</v>
+        <v>8.61411334187947e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.588541666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>86190.84525352353</v>
+        <v>116512.4539118145</v>
       </c>
     </row>
   </sheetData>
@@ -16777,28 +16777,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>87.62599102483664</v>
+        <v>115.6754716040539</v>
       </c>
       <c r="AB2" t="n">
-        <v>119.8937467060231</v>
+        <v>158.2722834902368</v>
       </c>
       <c r="AC2" t="n">
-        <v>108.4512557923619</v>
+        <v>143.1669988905171</v>
       </c>
       <c r="AD2" t="n">
-        <v>87625.99102483664</v>
+        <v>115675.4716040539</v>
       </c>
       <c r="AE2" t="n">
-        <v>119893.7467060231</v>
+        <v>158272.2834902368</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.700267702176092e-06</v>
+        <v>6.81749360308385e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.128472222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>108451.2557923619</v>
+        <v>143166.9988905171</v>
       </c>
     </row>
     <row r="3">
@@ -16883,28 +16883,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>74.50992416454578</v>
+        <v>102.6446560897836</v>
       </c>
       <c r="AB3" t="n">
-        <v>101.9477653877506</v>
+        <v>140.4429468246135</v>
       </c>
       <c r="AC3" t="n">
-        <v>92.21801374375664</v>
+        <v>127.0392690926241</v>
       </c>
       <c r="AD3" t="n">
-        <v>74509.92416454578</v>
+        <v>102644.6560897836</v>
       </c>
       <c r="AE3" t="n">
-        <v>101947.7653877506</v>
+        <v>140442.9468246135</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.967138676890482e-06</v>
+        <v>7.309185369572565e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.720486111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>92218.01374375664</v>
+        <v>127039.2690926241</v>
       </c>
     </row>
   </sheetData>
@@ -17180,28 +17180,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>98.1963467659223</v>
+        <v>136.9660628749597</v>
       </c>
       <c r="AB2" t="n">
-        <v>134.3565737621525</v>
+        <v>187.4030097416717</v>
       </c>
       <c r="AC2" t="n">
-        <v>121.5337709329642</v>
+        <v>169.5175295137554</v>
       </c>
       <c r="AD2" t="n">
-        <v>98196.3467659223</v>
+        <v>136966.0628749597</v>
       </c>
       <c r="AE2" t="n">
-        <v>134356.5737621525</v>
+        <v>187403.0097416717</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.213530378799666e-06</v>
+        <v>5.740737503803984e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.796875</v>
       </c>
       <c r="AH2" t="n">
-        <v>121533.7709329642</v>
+        <v>169517.5295137554</v>
       </c>
     </row>
     <row r="3">
@@ -17286,28 +17286,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>79.58332623043644</v>
+        <v>108.7246189531432</v>
       </c>
       <c r="AB3" t="n">
-        <v>108.8894179170013</v>
+        <v>148.7618202432888</v>
       </c>
       <c r="AC3" t="n">
-        <v>98.49716469828837</v>
+        <v>134.5642009078358</v>
       </c>
       <c r="AD3" t="n">
-        <v>79583.32623043645</v>
+        <v>108724.6189531432</v>
       </c>
       <c r="AE3" t="n">
-        <v>108889.4179170013</v>
+        <v>148761.8202432888</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.739383548671351e-06</v>
+        <v>6.680135815919578e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.842013888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>98497.16469828837</v>
+        <v>134564.2009078359</v>
       </c>
     </row>
     <row r="4">
@@ -17392,28 +17392,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>78.32845058493098</v>
+        <v>107.4697433076377</v>
       </c>
       <c r="AB4" t="n">
-        <v>107.1724416976153</v>
+        <v>147.0448440239028</v>
       </c>
       <c r="AC4" t="n">
-        <v>96.94405427948874</v>
+        <v>133.0110904890362</v>
       </c>
       <c r="AD4" t="n">
-        <v>78328.45058493098</v>
+        <v>107469.7433076377</v>
       </c>
       <c r="AE4" t="n">
-        <v>107172.4416976153</v>
+        <v>147044.8440239028</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.810171475384847e-06</v>
+        <v>6.806593281012062e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.729166666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>96944.05427948874</v>
+        <v>133011.0904890362</v>
       </c>
     </row>
   </sheetData>
